--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H2">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I2">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J2">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>64.40760879044299</v>
+        <v>301.2927248929155</v>
       </c>
       <c r="R2">
-        <v>257.630435161772</v>
+        <v>1205.170899571662</v>
       </c>
       <c r="S2">
-        <v>1.913864831993362E-05</v>
+        <v>0.0001713483176030545</v>
       </c>
       <c r="T2">
-        <v>8.718987663638739E-06</v>
+        <v>7.850151922876747E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H3">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I3">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J3">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>4456.267515410407</v>
+        <v>3884.044438672191</v>
       </c>
       <c r="R3">
-        <v>26737.60509246245</v>
+        <v>23304.26663203315</v>
       </c>
       <c r="S3">
-        <v>0.001324174866893045</v>
+        <v>0.002208896614740759</v>
       </c>
       <c r="T3">
-        <v>0.0009048808569920708</v>
+        <v>0.001517975861993582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H4">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I4">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J4">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>5944.723652241168</v>
+        <v>4173.928446349481</v>
       </c>
       <c r="R4">
-        <v>35668.341913447</v>
+        <v>25043.57067809688</v>
       </c>
       <c r="S4">
-        <v>0.001766467929427574</v>
+        <v>0.002373756675776711</v>
       </c>
       <c r="T4">
-        <v>0.001207123812567076</v>
+        <v>0.001631269345984336</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H5">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I5">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J5">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>955.8306657981523</v>
+        <v>902.7672467052205</v>
       </c>
       <c r="R5">
-        <v>3823.322663192609</v>
+        <v>3611.068986820882</v>
       </c>
       <c r="S5">
-        <v>0.0002840240044563377</v>
+        <v>0.0005134131564745206</v>
       </c>
       <c r="T5">
-        <v>0.0001293927214521632</v>
+        <v>0.0002352151065098542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H6">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I6">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J6">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>199.4936473344977</v>
+        <v>1448.305764690968</v>
       </c>
       <c r="R6">
-        <v>1196.961884006986</v>
+        <v>8689.834588145806</v>
       </c>
       <c r="S6">
-        <v>5.927931233743219E-05</v>
+        <v>0.0008236666060981209</v>
       </c>
       <c r="T6">
-        <v>4.050878497313218E-05</v>
+        <v>0.0005660319356023196</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H7">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I7">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J7">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>4581.00880263992</v>
+        <v>5603.424015441987</v>
       </c>
       <c r="R7">
-        <v>27486.05281583952</v>
+        <v>33620.54409265192</v>
       </c>
       <c r="S7">
-        <v>0.001361241599723153</v>
+        <v>0.003186725727293233</v>
       </c>
       <c r="T7">
-        <v>0.0009302105757533871</v>
+        <v>0.002189949815008791</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>13.537847</v>
       </c>
       <c r="I8">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J8">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>9.111178611320666</v>
+        <v>48.900476821957</v>
       </c>
       <c r="R8">
-        <v>54.66707166792399</v>
+        <v>293.402860931742</v>
       </c>
       <c r="S8">
-        <v>2.707376449722222E-06</v>
+        <v>2.781021160204758E-05</v>
       </c>
       <c r="T8">
-        <v>1.850097886069206E-06</v>
+        <v>1.91114557590087E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>13.537847</v>
       </c>
       <c r="I9">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J9">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>630.3890182421276</v>
@@ -1013,10 +1013,10 @@
         <v>5673.501164179149</v>
       </c>
       <c r="S9">
-        <v>0.0001873193858840248</v>
+        <v>0.0003585088148066651</v>
       </c>
       <c r="T9">
-        <v>0.0001920083185399134</v>
+        <v>0.00036955626865247</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>13.537847</v>
       </c>
       <c r="I10">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J10">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>840.9478322155741</v>
+        <v>677.4378349817866</v>
       </c>
       <c r="R10">
-        <v>7568.530489940167</v>
+        <v>6096.940514836079</v>
       </c>
       <c r="S10">
-        <v>0.0002498867000100861</v>
+        <v>0.0003852659679918948</v>
       </c>
       <c r="T10">
-        <v>0.0002561418022378661</v>
+        <v>0.0003971379438651938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>13.537847</v>
       </c>
       <c r="I11">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J11">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>135.2129675641172</v>
+        <v>146.5211243942937</v>
       </c>
       <c r="R11">
-        <v>811.2778053847029</v>
+        <v>879.126746365762</v>
       </c>
       <c r="S11">
-        <v>4.01783808326729E-05</v>
+        <v>8.332809286116423E-05</v>
       </c>
       <c r="T11">
-        <v>2.745607743313211E-05</v>
+        <v>5.726389942611785E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>13.537847</v>
       </c>
       <c r="I12">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J12">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>28.22061378807355</v>
+        <v>235.0632346086318</v>
       </c>
       <c r="R12">
-        <v>253.985524092662</v>
+        <v>2115.569111477686</v>
       </c>
       <c r="S12">
-        <v>8.38572356287743E-06</v>
+        <v>0.0001336829151611162</v>
       </c>
       <c r="T12">
-        <v>8.595632926351293E-06</v>
+        <v>0.0001378023559509096</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>13.537847</v>
       </c>
       <c r="I13">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J13">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>648.0350723263895</v>
+        <v>909.4481331671909</v>
       </c>
       <c r="R13">
-        <v>5832.315650937506</v>
+        <v>8185.033198504719</v>
       </c>
       <c r="S13">
-        <v>0.000192562890955794</v>
+        <v>0.0005172126463419328</v>
       </c>
       <c r="T13">
-        <v>0.0001973830777370702</v>
+        <v>0.0005331505608448451</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H14">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I14">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J14">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>5438.668456260416</v>
+        <v>9722.668665459672</v>
       </c>
       <c r="R14">
-        <v>32632.0107375625</v>
+        <v>58336.01199275803</v>
       </c>
       <c r="S14">
-        <v>0.001616094198617872</v>
+        <v>0.005529383157295154</v>
       </c>
       <c r="T14">
-        <v>0.001104365246605584</v>
+        <v>0.003799847448031414</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H15">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I15">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J15">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>376293.4538926214</v>
+        <v>125337.5008392676</v>
       </c>
       <c r="R15">
-        <v>3386641.085033593</v>
+        <v>1128037.507553408</v>
       </c>
       <c r="S15">
-        <v>0.1118151754798985</v>
+        <v>0.0712807450263294</v>
       </c>
       <c r="T15">
-        <v>0.1146141053677864</v>
+        <v>0.07347726212228314</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H16">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I16">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J16">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>501980.769288033</v>
+        <v>134692.0120013395</v>
       </c>
       <c r="R16">
-        <v>4517826.923592297</v>
+        <v>1212228.108012056</v>
       </c>
       <c r="S16">
-        <v>0.1491630195126721</v>
+        <v>0.07660075316854296</v>
       </c>
       <c r="T16">
-        <v>0.1528968314187016</v>
+        <v>0.07896120638540381</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H17">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I17">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J17">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>80711.67660511198</v>
+        <v>29132.15652606199</v>
       </c>
       <c r="R17">
-        <v>484270.0596306719</v>
+        <v>174792.9391563719</v>
       </c>
       <c r="S17">
-        <v>0.0239833836850447</v>
+        <v>0.0165677615039119</v>
       </c>
       <c r="T17">
-        <v>0.0163891532191766</v>
+        <v>0.01138553152844428</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H18">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I18">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J18">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>16845.5222505243</v>
+        <v>46736.59837412352</v>
       </c>
       <c r="R18">
-        <v>151609.7002547187</v>
+        <v>420629.3853671117</v>
       </c>
       <c r="S18">
-        <v>0.005005627940129958</v>
+        <v>0.02657959134174905</v>
       </c>
       <c r="T18">
-        <v>0.005130927583842411</v>
+        <v>0.02739864179869994</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H19">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I19">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J19">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>386826.7824354618</v>
+        <v>180821.6083331757</v>
       </c>
       <c r="R19">
-        <v>3481441.041919156</v>
+        <v>1627394.474998581</v>
       </c>
       <c r="S19">
-        <v>0.1149451421780203</v>
+        <v>0.102835136112829</v>
       </c>
       <c r="T19">
-        <v>0.117822420620135</v>
+        <v>0.1060040021853303</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H20">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I20">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J20">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>76.213145399922</v>
+        <v>227.2477490514525</v>
       </c>
       <c r="R20">
-        <v>304.852581599688</v>
+        <v>908.9909962058101</v>
       </c>
       <c r="S20">
-        <v>2.264665021039421E-05</v>
+        <v>0.0001292381669450761</v>
       </c>
       <c r="T20">
-        <v>1.031712692068807E-05</v>
+        <v>5.920917456004657E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H21">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I21">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J21">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>5273.075192062049</v>
+        <v>2929.511013642208</v>
       </c>
       <c r="R21">
-        <v>31638.45115237229</v>
+        <v>17577.06608185325</v>
       </c>
       <c r="S21">
-        <v>0.001566888346900044</v>
+        <v>0.001666043492306754</v>
       </c>
       <c r="T21">
-        <v>0.001070740206299598</v>
+        <v>0.00114492176296352</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H22">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I22">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J22">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>7034.356601325009</v>
+        <v>3148.1538243974</v>
       </c>
       <c r="R22">
-        <v>42206.13960795006</v>
+        <v>18888.9229463844</v>
       </c>
       <c r="S22">
-        <v>0.002090251131474072</v>
+        <v>0.001790387941022602</v>
       </c>
       <c r="T22">
-        <v>0.001428382521422434</v>
+        <v>0.001230372512656352</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H23">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I23">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J23">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>1131.028815977221</v>
+        <v>680.9053381692275</v>
       </c>
       <c r="R23">
-        <v>4524.115263908886</v>
+        <v>2723.62135267691</v>
       </c>
       <c r="S23">
-        <v>0.000336083937211948</v>
+        <v>0.0003872379732491157</v>
       </c>
       <c r="T23">
-        <v>0.0001531096477406966</v>
+        <v>0.0001774092073290512</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H24">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I24">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J24">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>236.059661834874</v>
+        <v>1092.373621305464</v>
       </c>
       <c r="R24">
-        <v>1416.357971009244</v>
+        <v>6554.241727832785</v>
       </c>
       <c r="S24">
-        <v>7.014486231090267E-05</v>
+        <v>0.0006212442808606579</v>
       </c>
       <c r="T24">
-        <v>4.793380746638744E-05</v>
+        <v>0.0004269252877001293</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H25">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I25">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J25">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>5420.680824991662</v>
+        <v>4226.339998559934</v>
       </c>
       <c r="R25">
-        <v>32524.08494994997</v>
+        <v>25358.0399913596</v>
       </c>
       <c r="S25">
-        <v>0.001610749194270925</v>
+        <v>0.002403563672601535</v>
       </c>
       <c r="T25">
-        <v>0.001100712713820817</v>
+        <v>0.001651753012533806</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H26">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I26">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J26">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>64.10480203008532</v>
+        <v>2948.846665155114</v>
       </c>
       <c r="R26">
-        <v>384.6288121805119</v>
+        <v>17693.07999093068</v>
       </c>
       <c r="S26">
-        <v>1.904866963256705E-05</v>
+        <v>0.001677039879151716</v>
       </c>
       <c r="T26">
-        <v>1.301699415434407E-05</v>
+        <v>0.001152478590063713</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H27">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I27">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J27">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>4435.316761998354</v>
+        <v>38014.36458302637</v>
       </c>
       <c r="R27">
-        <v>39917.85085798519</v>
+        <v>342129.2812472373</v>
       </c>
       <c r="S27">
-        <v>0.001317949374142716</v>
+        <v>0.02161916594025224</v>
       </c>
       <c r="T27">
-        <v>0.001350939957739076</v>
+        <v>0.02228536082318288</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H28">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I28">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J28">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>5916.775052003367</v>
+        <v>40851.55054436942</v>
       </c>
       <c r="R28">
-        <v>53250.97546803029</v>
+        <v>367663.9548993247</v>
       </c>
       <c r="S28">
-        <v>0.001758163034384412</v>
+        <v>0.02323270321160826</v>
       </c>
       <c r="T28">
-        <v>0.001802172937723543</v>
+        <v>0.02394861926678792</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H29">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I29">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J29">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>951.3369112123772</v>
+        <v>8835.666993964478</v>
       </c>
       <c r="R29">
-        <v>5708.021467274264</v>
+        <v>53014.00196378686</v>
       </c>
       <c r="S29">
-        <v>0.0002826886903487598</v>
+        <v>0.005024936048006945</v>
       </c>
       <c r="T29">
-        <v>0.0001931765892709797</v>
+        <v>0.003453186345632193</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H30">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I30">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J30">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>198.5557453350951</v>
+        <v>14175.0240595813</v>
       </c>
       <c r="R30">
-        <v>1787.001708015856</v>
+        <v>127575.2165362317</v>
       </c>
       <c r="S30">
-        <v>5.900061581597723E-05</v>
+        <v>0.008061484144548575</v>
       </c>
       <c r="T30">
-        <v>6.047750467567249E-05</v>
+        <v>0.008309898884542109</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H31">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I31">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J31">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>4559.471588935703</v>
+        <v>54842.47330319361</v>
       </c>
       <c r="R31">
-        <v>41035.24430042133</v>
+        <v>493582.2597287425</v>
       </c>
       <c r="S31">
-        <v>0.001354841840958356</v>
+        <v>0.03118948702472841</v>
       </c>
       <c r="T31">
-        <v>0.001388755907682699</v>
+        <v>0.0321505914778109</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H32">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I32">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J32">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>7725.816916459724</v>
+        <v>19225.6060490112</v>
       </c>
       <c r="R32">
-        <v>46354.90149875834</v>
+        <v>115353.6362940672</v>
       </c>
       <c r="S32">
-        <v>0.002295717784359925</v>
+        <v>0.01093380284096809</v>
       </c>
       <c r="T32">
-        <v>0.001568789083724043</v>
+        <v>0.007513818746258659</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H33">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I33">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J33">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>534537.8845975144</v>
+        <v>247842.3874366846</v>
       </c>
       <c r="R33">
-        <v>4810840.961377629</v>
+        <v>2230581.486930161</v>
       </c>
       <c r="S33">
-        <v>0.1588373296123842</v>
+        <v>0.1409505527658987</v>
       </c>
       <c r="T33">
-        <v>0.1628133064621843</v>
+        <v>0.1452939459041167</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H34">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I34">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J34">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>713081.0694369073</v>
+        <v>266339.9987994976</v>
       </c>
       <c r="R34">
-        <v>6417729.624932165</v>
+        <v>2397059.989195479</v>
       </c>
       <c r="S34">
-        <v>0.2118912356451305</v>
+        <v>0.1514703374298652</v>
       </c>
       <c r="T34">
-        <v>0.2171952447823811</v>
+        <v>0.1561378978709308</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H35">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I35">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J35">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>114653.7321564106</v>
+        <v>57605.92940063115</v>
       </c>
       <c r="R35">
-        <v>687922.3929384634</v>
+        <v>345635.5764037869</v>
       </c>
       <c r="S35">
-        <v>0.03406922721582245</v>
+        <v>0.03276109335287363</v>
       </c>
       <c r="T35">
-        <v>0.02328135980442307</v>
+        <v>0.02251375125042556</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H36">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I36">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J36">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>23929.64782030238</v>
+        <v>92416.95457584276</v>
       </c>
       <c r="R36">
-        <v>215366.8303827214</v>
+        <v>831752.5911825848</v>
       </c>
       <c r="S36">
-        <v>0.007110667864455634</v>
+        <v>0.05255848673477516</v>
       </c>
       <c r="T36">
-        <v>0.007288660348241943</v>
+        <v>0.05417807719511264</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H37">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I37">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J37">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>549500.8426261895</v>
+        <v>357556.6674726211</v>
       </c>
       <c r="R37">
-        <v>4945507.583635706</v>
+        <v>3218010.00725359</v>
       </c>
       <c r="S37">
-        <v>0.1632835557169502</v>
+        <v>0.2033462090429287</v>
       </c>
       <c r="T37">
-        <v>0.1673708294017189</v>
+        <v>0.2096123251503738</v>
       </c>
     </row>
   </sheetData>
